--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il1a-Il1r2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il1a-Il1r2.xlsx
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.02286966666666667</v>
+        <v>0.05441666666666667</v>
       </c>
       <c r="H2">
-        <v>0.068609</v>
+        <v>0.16325</v>
       </c>
       <c r="I2">
-        <v>0.001711767187487096</v>
+        <v>0.00608027172874025</v>
       </c>
       <c r="J2">
-        <v>0.001711767187487096</v>
+        <v>0.006080271728740251</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.15683</v>
+        <v>0.1124096666666667</v>
       </c>
       <c r="N2">
-        <v>0.47049</v>
+        <v>0.337229</v>
       </c>
       <c r="O2">
-        <v>0.005895093830118167</v>
+        <v>0.0063156040276642</v>
       </c>
       <c r="P2">
-        <v>0.005909707522044401</v>
+        <v>0.0063960530566531</v>
       </c>
       <c r="Q2">
-        <v>0.003586649823333333</v>
+        <v>0.006116959361111111</v>
       </c>
       <c r="R2">
-        <v>0.03227984841000001</v>
+        <v>0.05505263425</v>
       </c>
       <c r="S2">
-        <v>1.009102818555391E-05</v>
+        <v>3.840058861932469E-05</v>
       </c>
       <c r="T2">
-        <v>1.011604342388128E-05</v>
+        <v>3.888974057589052E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.02286966666666667</v>
+        <v>0.05441666666666667</v>
       </c>
       <c r="H3">
-        <v>0.068609</v>
+        <v>0.16325</v>
       </c>
       <c r="I3">
-        <v>0.001711767187487096</v>
+        <v>0.00608027172874025</v>
       </c>
       <c r="J3">
-        <v>0.001711767187487096</v>
+        <v>0.006080271728740251</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>6.484987</v>
       </c>
       <c r="O3">
-        <v>0.08125487651617787</v>
+        <v>0.1214504387717248</v>
       </c>
       <c r="P3">
-        <v>0.08145630396875631</v>
+        <v>0.1229974910927163</v>
       </c>
       <c r="Q3">
-        <v>0.04943649700922223</v>
+        <v>0.1176304586388889</v>
       </c>
       <c r="R3">
-        <v>0.444928473083</v>
+        <v>1.05867412775</v>
       </c>
       <c r="S3">
-        <v>0.0001390894314437091</v>
+        <v>0.000738451669306817</v>
       </c>
       <c r="T3">
-        <v>0.000139434228347692</v>
+        <v>0.0007478581677970237</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.02286966666666667</v>
+        <v>0.05441666666666667</v>
       </c>
       <c r="H4">
-        <v>0.068609</v>
+        <v>0.16325</v>
       </c>
       <c r="I4">
-        <v>0.001711767187487096</v>
+        <v>0.00608027172874025</v>
       </c>
       <c r="J4">
-        <v>0.001711767187487096</v>
+        <v>0.006080271728740251</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.944413999999999</v>
+        <v>10.589294</v>
       </c>
       <c r="N4">
-        <v>17.833242</v>
+        <v>31.767882</v>
       </c>
       <c r="O4">
-        <v>0.2234449932734046</v>
+        <v>0.5949469455757395</v>
       </c>
       <c r="P4">
-        <v>0.2239989040996368</v>
+        <v>0.6025254612429388</v>
       </c>
       <c r="Q4">
-        <v>0.1359467667086666</v>
+        <v>0.5762340818333334</v>
       </c>
       <c r="R4">
-        <v>1.223520900378</v>
+        <v>5.1861067365</v>
       </c>
       <c r="S4">
-        <v>0.000382485807693689</v>
+        <v>0.003617439093284533</v>
       </c>
       <c r="T4">
-        <v>0.0003834339740708271</v>
+        <v>0.003663518527841621</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,46 +726,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.02286966666666667</v>
+        <v>0.05441666666666667</v>
       </c>
       <c r="H5">
-        <v>0.068609</v>
+        <v>0.16325</v>
       </c>
       <c r="I5">
-        <v>0.001711767187487096</v>
+        <v>0.00608027172874025</v>
       </c>
       <c r="J5">
-        <v>0.001711767187487096</v>
+        <v>0.006080271728740251</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1973575</v>
+        <v>0.6716124999999999</v>
       </c>
       <c r="N5">
-        <v>0.394715</v>
+        <v>1.343225</v>
       </c>
       <c r="O5">
-        <v>0.007418484859896359</v>
+        <v>0.03773375311758142</v>
       </c>
       <c r="P5">
-        <v>0.004957916649798626</v>
+        <v>0.02547627388813791</v>
       </c>
       <c r="Q5">
-        <v>0.004513500239166667</v>
+        <v>0.03654691354166666</v>
       </c>
       <c r="R5">
-        <v>0.027081001435</v>
+        <v>0.21928148125</v>
       </c>
       <c r="S5">
-        <v>1.26987189640404E-05</v>
+        <v>0.0002294314723000946</v>
       </c>
       <c r="T5">
-        <v>8.486799039421242E-06</v>
+        <v>0.0001549026678756884</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.02286966666666667</v>
+        <v>0.05441666666666667</v>
       </c>
       <c r="H6">
-        <v>0.068609</v>
+        <v>0.16325</v>
       </c>
       <c r="I6">
-        <v>0.001711767187487096</v>
+        <v>0.00608027172874025</v>
       </c>
       <c r="J6">
-        <v>0.001711767187487096</v>
+        <v>0.006080271728740251</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.14321433333333</v>
+        <v>4.263741333333333</v>
       </c>
       <c r="N6">
-        <v>54.42964299999999</v>
+        <v>12.791224</v>
       </c>
       <c r="O6">
-        <v>0.681986551520403</v>
+        <v>0.2395532585072902</v>
       </c>
       <c r="P6">
-        <v>0.6836771677597638</v>
+        <v>0.2426047207195541</v>
       </c>
       <c r="Q6">
-        <v>0.4149292640652221</v>
+        <v>0.2320185908888889</v>
       </c>
       <c r="R6">
-        <v>3.734363376586999</v>
+        <v>2.088167318</v>
       </c>
       <c r="S6">
-        <v>0.001167402201200104</v>
+        <v>0.001456548905229481</v>
       </c>
       <c r="T6">
-        <v>0.001170296142605275</v>
+        <v>0.001475102624650029</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.046308333333333</v>
+        <v>4.046611333333334</v>
       </c>
       <c r="H7">
-        <v>15.138925</v>
+        <v>12.139834</v>
       </c>
       <c r="I7">
-        <v>0.3777101410722805</v>
+        <v>0.4521500120171497</v>
       </c>
       <c r="J7">
-        <v>0.3777101410722805</v>
+        <v>0.4521500120171497</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.15683</v>
+        <v>0.1124096666666667</v>
       </c>
       <c r="N7">
-        <v>0.47049</v>
+        <v>0.337229</v>
       </c>
       <c r="O7">
-        <v>0.005895093830118167</v>
+        <v>0.0063156040276642</v>
       </c>
       <c r="P7">
-        <v>0.005909707522044401</v>
+        <v>0.0063960530566531</v>
       </c>
       <c r="Q7">
-        <v>0.7914125359166666</v>
+        <v>0.4548782311095556</v>
       </c>
       <c r="R7">
-        <v>7.122712823250001</v>
+        <v>4.093904079986</v>
       </c>
       <c r="S7">
-        <v>0.002226636722208263</v>
+        <v>0.002855600437003927</v>
       </c>
       <c r="T7">
-        <v>0.002232156461847308</v>
+        <v>0.002891975466428026</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.046308333333333</v>
+        <v>4.046611333333334</v>
       </c>
       <c r="H8">
-        <v>15.138925</v>
+        <v>12.139834</v>
       </c>
       <c r="I8">
-        <v>0.3777101410722805</v>
+        <v>0.4521500120171497</v>
       </c>
       <c r="J8">
-        <v>0.3777101410722805</v>
+        <v>0.4521500120171497</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>6.484987</v>
       </c>
       <c r="O8">
-        <v>0.08125487651617787</v>
+        <v>0.1214504387717248</v>
       </c>
       <c r="P8">
-        <v>0.08145630396875631</v>
+        <v>0.1229974910927163</v>
       </c>
       <c r="Q8">
-        <v>10.90841464655278</v>
+        <v>8.747407296906447</v>
       </c>
       <c r="R8">
-        <v>98.17573181897501</v>
+        <v>78.72666567215801</v>
       </c>
       <c r="S8">
-        <v>0.03069079087173627</v>
+        <v>0.05491381735012346</v>
       </c>
       <c r="T8">
-        <v>0.0307668720632655</v>
+        <v>0.05561331707565093</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.046308333333333</v>
+        <v>4.046611333333334</v>
       </c>
       <c r="H9">
-        <v>15.138925</v>
+        <v>12.139834</v>
       </c>
       <c r="I9">
-        <v>0.3777101410722805</v>
+        <v>0.4521500120171497</v>
       </c>
       <c r="J9">
-        <v>0.3777101410722805</v>
+        <v>0.4521500120171497</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.944413999999999</v>
+        <v>10.589294</v>
       </c>
       <c r="N9">
-        <v>17.833242</v>
+        <v>31.767882</v>
       </c>
       <c r="O9">
-        <v>0.2234449932734046</v>
+        <v>0.5949469455757395</v>
       </c>
       <c r="P9">
-        <v>0.2239989040996368</v>
+        <v>0.6025254612429388</v>
       </c>
       <c r="Q9">
-        <v>29.99734590498333</v>
+        <v>42.85075711239868</v>
       </c>
       <c r="R9">
-        <v>269.97611314485</v>
+        <v>385.656814011588</v>
       </c>
       <c r="S9">
-        <v>0.08439743993119242</v>
+        <v>0.2690052685916371</v>
       </c>
       <c r="T9">
-        <v>0.08460665766751004</v>
+        <v>0.2724318945416334</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.046308333333333</v>
+        <v>4.046611333333334</v>
       </c>
       <c r="H10">
-        <v>15.138925</v>
+        <v>12.139834</v>
       </c>
       <c r="I10">
-        <v>0.3777101410722805</v>
+        <v>0.4521500120171497</v>
       </c>
       <c r="J10">
-        <v>0.3777101410722805</v>
+        <v>0.4521500120171497</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1973575</v>
+        <v>0.6716124999999999</v>
       </c>
       <c r="N10">
-        <v>0.394715</v>
+        <v>1.343225</v>
       </c>
       <c r="O10">
-        <v>0.007418484859896359</v>
+        <v>0.03773375311758142</v>
       </c>
       <c r="P10">
-        <v>0.004957916649798626</v>
+        <v>0.02547627388813791</v>
       </c>
       <c r="Q10">
-        <v>0.9959267968958333</v>
+        <v>2.717754754108333</v>
       </c>
       <c r="R10">
-        <v>5.975560781375</v>
+        <v>16.30652852465</v>
       </c>
       <c r="S10">
-        <v>0.002802036962974031</v>
+        <v>0.0170613169255666</v>
       </c>
       <c r="T10">
-        <v>0.001872655397220047</v>
+        <v>0.01151909754467375</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.046308333333333</v>
+        <v>4.046611333333334</v>
       </c>
       <c r="H11">
-        <v>15.138925</v>
+        <v>12.139834</v>
       </c>
       <c r="I11">
-        <v>0.3777101410722805</v>
+        <v>0.4521500120171497</v>
       </c>
       <c r="J11">
-        <v>0.3777101410722805</v>
+        <v>0.4521500120171497</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>18.14321433333333</v>
+        <v>4.263741333333333</v>
       </c>
       <c r="N11">
-        <v>54.42964299999999</v>
+        <v>12.791224</v>
       </c>
       <c r="O11">
-        <v>0.681986551520403</v>
+        <v>0.2395532585072902</v>
       </c>
       <c r="P11">
-        <v>0.6836771677597638</v>
+        <v>0.2426047207195541</v>
       </c>
       <c r="Q11">
-        <v>91.55625368375276</v>
+        <v>17.25370400186845</v>
       </c>
       <c r="R11">
-        <v>824.0062831537749</v>
+        <v>155.283336016816</v>
       </c>
       <c r="S11">
-        <v>0.2575932365841695</v>
+        <v>0.1083140087128186</v>
       </c>
       <c r="T11">
-        <v>0.2582317994824376</v>
+        <v>0.1096937273887636</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>8.291088999999999</v>
+        <v>4.848681666666667</v>
       </c>
       <c r="H12">
-        <v>24.873267</v>
+        <v>14.546045</v>
       </c>
       <c r="I12">
-        <v>0.6205780917402324</v>
+        <v>0.5417697162541101</v>
       </c>
       <c r="J12">
-        <v>0.6205780917402324</v>
+        <v>0.5417697162541102</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.15683</v>
+        <v>0.1124096666666667</v>
       </c>
       <c r="N12">
-        <v>0.47049</v>
+        <v>0.337229</v>
       </c>
       <c r="O12">
-        <v>0.005895093830118167</v>
+        <v>0.0063156040276642</v>
       </c>
       <c r="P12">
-        <v>0.005909707522044401</v>
+        <v>0.0063960530566531</v>
       </c>
       <c r="Q12">
-        <v>1.30029148787</v>
+        <v>0.5450386899227778</v>
       </c>
       <c r="R12">
-        <v>11.70262339083</v>
+        <v>4.905348209305</v>
       </c>
       <c r="S12">
-        <v>0.003658366079724349</v>
+        <v>0.003421603002040948</v>
       </c>
       <c r="T12">
-        <v>0.003667435016773211</v>
+        <v>0.003465187849649184</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>8.291088999999999</v>
+        <v>4.848681666666667</v>
       </c>
       <c r="H13">
-        <v>24.873267</v>
+        <v>14.546045</v>
       </c>
       <c r="I13">
-        <v>0.6205780917402324</v>
+        <v>0.5417697162541101</v>
       </c>
       <c r="J13">
-        <v>0.6205780917402324</v>
+        <v>0.5417697162541102</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>6.484987</v>
       </c>
       <c r="O13">
-        <v>0.08125487651617787</v>
+        <v>0.1214504387717248</v>
       </c>
       <c r="P13">
-        <v>0.08145630396875631</v>
+        <v>0.1229974910927163</v>
       </c>
       <c r="Q13">
-        <v>17.92253479361434</v>
+        <v>10.48121252515722</v>
       </c>
       <c r="R13">
-        <v>161.302813142529</v>
+        <v>94.33091272641499</v>
       </c>
       <c r="S13">
-        <v>0.05042499621299788</v>
+        <v>0.06579816975229451</v>
       </c>
       <c r="T13">
-        <v>0.0505499976771431</v>
+        <v>0.06663631584926834</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.291088999999999</v>
+        <v>4.848681666666667</v>
       </c>
       <c r="H14">
-        <v>24.873267</v>
+        <v>14.546045</v>
       </c>
       <c r="I14">
-        <v>0.6205780917402324</v>
+        <v>0.5417697162541101</v>
       </c>
       <c r="J14">
-        <v>0.6205780917402324</v>
+        <v>0.5417697162541102</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.944413999999999</v>
+        <v>10.589294</v>
       </c>
       <c r="N14">
-        <v>17.833242</v>
+        <v>31.767882</v>
       </c>
       <c r="O14">
-        <v>0.2234449932734046</v>
+        <v>0.5949469455757395</v>
       </c>
       <c r="P14">
-        <v>0.2239989040996368</v>
+        <v>0.6025254612429388</v>
       </c>
       <c r="Q14">
-        <v>49.28566552684599</v>
+        <v>51.34411568074334</v>
       </c>
       <c r="R14">
-        <v>443.5709897416139</v>
+        <v>462.09704112669</v>
       </c>
       <c r="S14">
-        <v>0.1386650675345185</v>
+        <v>0.3223242378908178</v>
       </c>
       <c r="T14">
-        <v>0.1390088124580559</v>
+        <v>0.3264300481734638</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.291088999999999</v>
+        <v>4.848681666666667</v>
       </c>
       <c r="H15">
-        <v>24.873267</v>
+        <v>14.546045</v>
       </c>
       <c r="I15">
-        <v>0.6205780917402324</v>
+        <v>0.5417697162541101</v>
       </c>
       <c r="J15">
-        <v>0.6205780917402324</v>
+        <v>0.5417697162541102</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.1973575</v>
+        <v>0.6716124999999999</v>
       </c>
       <c r="N15">
-        <v>0.394715</v>
+        <v>1.343225</v>
       </c>
       <c r="O15">
-        <v>0.007418484859896359</v>
+        <v>0.03773375311758142</v>
       </c>
       <c r="P15">
-        <v>0.004957916649798626</v>
+        <v>0.02547627388813791</v>
       </c>
       <c r="Q15">
-        <v>1.6363085973175</v>
+        <v>3.256435215854166</v>
       </c>
       <c r="R15">
-        <v>9.817851583904998</v>
+        <v>19.538611295125</v>
       </c>
       <c r="S15">
-        <v>0.004603749177958288</v>
+        <v>0.02044300471971473</v>
       </c>
       <c r="T15">
-        <v>0.003076774453539157</v>
+        <v>0.01380227367558847</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.291088999999999</v>
+        <v>4.848681666666667</v>
       </c>
       <c r="H16">
-        <v>24.873267</v>
+        <v>14.546045</v>
       </c>
       <c r="I16">
-        <v>0.6205780917402324</v>
+        <v>0.5417697162541101</v>
       </c>
       <c r="J16">
-        <v>0.6205780917402324</v>
+        <v>0.5417697162541102</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>18.14321433333333</v>
+        <v>4.263741333333333</v>
       </c>
       <c r="N16">
-        <v>54.42964299999999</v>
+        <v>12.791224</v>
       </c>
       <c r="O16">
-        <v>0.681986551520403</v>
+        <v>0.2395532585072902</v>
       </c>
       <c r="P16">
-        <v>0.6836771677597638</v>
+        <v>0.2426047207195541</v>
       </c>
       <c r="Q16">
-        <v>150.4270047837423</v>
+        <v>20.67352443434222</v>
       </c>
       <c r="R16">
-        <v>1353.843043053681</v>
+        <v>186.06171990908</v>
       </c>
       <c r="S16">
-        <v>0.4232259127350333</v>
+        <v>0.1297827008892421</v>
       </c>
       <c r="T16">
-        <v>0.424275072134721</v>
+        <v>0.1314358907061405</v>
       </c>
     </row>
   </sheetData>
